--- a/data/trans_orig/dukeCONF-Edad-trans_orig.xlsx
+++ b/data/trans_orig/dukeCONF-Edad-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>30.77758586332719</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32.53327672838197</v>
+        <v>32.53327672838198</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>30.90213612546693</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>30.85632357332905</v>
+        <v>30.82054826835951</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>31.32189652283817</v>
+        <v>31.33124592464666</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30.42255778465717</v>
+        <v>30.40634729481854</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>31.83150467847312</v>
+        <v>31.86462164030472</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>30.45545416133335</v>
+        <v>30.47676458427295</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>31.07747103503226</v>
+        <v>31.06783031041278</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>30.64893105583955</v>
+        <v>30.62141142688413</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>30.91454242588409</v>
+        <v>30.80336150684503</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>30.79361363045385</v>
+        <v>30.77682172246855</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>31.33934837424918</v>
+        <v>31.34774549464041</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30.61651144667389</v>
+        <v>30.63174478619479</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>31.66537968032899</v>
+        <v>31.68209683942396</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>31.62639497050835</v>
+        <v>31.58951108793038</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>32.10228698641074</v>
+        <v>32.09343898572575</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>31.15823578859711</v>
+        <v>31.16528578507613</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>33.06866417426554</v>
+        <v>33.11383973268165</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>31.31187565361882</v>
+        <v>31.316583689382</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>31.84547220621018</v>
+        <v>31.84718518132667</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>31.35371168333191</v>
+        <v>31.37971801456761</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>32.44733422911035</v>
+        <v>32.42660050534967</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>31.35499497814692</v>
+        <v>31.34639499747231</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>31.85560897094748</v>
+        <v>31.88657602788227</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>31.16114758657769</v>
+        <v>31.13341507586339</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>32.653619693952</v>
+        <v>32.65063859382371</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>30.76334264079728</v>
+        <v>30.75812217309707</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>30.88422134847006</v>
+        <v>30.88963145884266</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>30.01591397532609</v>
+        <v>30.05446803224225</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30.54084189360737</v>
+        <v>30.53726119940681</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>29.86603932058112</v>
+        <v>29.87497490506161</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>30.22792412946273</v>
+        <v>30.27891453665733</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>30.32626640532811</v>
+        <v>30.31307995784805</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>30.91834896552451</v>
+        <v>30.95307215945015</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>30.50642763142547</v>
+        <v>30.50362173382024</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>30.71246712636756</v>
+        <v>30.70136489068705</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>30.26183528212182</v>
+        <v>30.27863456172102</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>30.8967851703198</v>
+        <v>30.90338359577867</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>31.48413811986102</v>
+        <v>31.43103986319949</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>31.61576395482826</v>
+        <v>31.55834969618881</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>30.67404327205078</v>
+        <v>30.68579453426098</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>31.6861356521067</v>
+        <v>31.66866120592142</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>30.72827874092718</v>
+        <v>30.73535196020244</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>31.02871232520158</v>
+        <v>31.06486338502136</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>30.95150806508261</v>
+        <v>30.94735484821351</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>31.77972060545768</v>
+        <v>31.77988730773017</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>31.04169643077461</v>
+        <v>31.03528104076884</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>31.22543749387047</v>
+        <v>31.2258536537834</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>30.7205960047811</v>
+        <v>30.73375365922489</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>31.62187688141754</v>
+        <v>31.63253575787584</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>29.5083068669141</v>
+        <v>29.45837548912979</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>30.06297541695062</v>
+        <v>30.02735682968095</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29.66577851156572</v>
+        <v>29.7021334311715</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>30.33634147718425</v>
+        <v>30.37089709444786</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>29.6257187884315</v>
+        <v>29.61427007118953</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>29.92168084178416</v>
+        <v>29.89199052703241</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>29.70674660372043</v>
+        <v>29.71556042682381</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>30.7478996564649</v>
+        <v>30.73822495929302</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>29.70807757366432</v>
+        <v>29.67340181672313</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>30.08052361692871</v>
+        <v>30.07823406887221</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29.76332199752943</v>
+        <v>29.76158785025781</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>30.67258057493295</v>
+        <v>30.6821974909756</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>30.38159721360056</v>
+        <v>30.35249578013434</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>30.84306835019127</v>
+        <v>30.8067305039349</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>30.33872881063564</v>
+        <v>30.39243144965549</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>31.15575737957443</v>
+        <v>31.18255741719848</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>30.43102422483404</v>
+        <v>30.37229332284274</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>30.63341054917312</v>
+        <v>30.65182053355276</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>30.37061045925885</v>
+        <v>30.37311823964239</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>31.35852480672762</v>
+        <v>31.34257757379563</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>30.26592972760542</v>
+        <v>30.28420590729754</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>30.63697699803638</v>
+        <v>30.62094623510877</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>30.28334679017919</v>
+        <v>30.2616142843288</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>31.18736633706162</v>
+        <v>31.20627298524892</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>29.24083694005952</v>
+        <v>29.26650876182169</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>29.98289308371811</v>
+        <v>29.95290440430094</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>28.52772926784111</v>
+        <v>28.53244470125536</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>29.96373040549</v>
+        <v>29.91851335670875</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>28.67053795662193</v>
+        <v>28.64421815600027</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>29.11873300656035</v>
+        <v>29.13764503316154</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>29.00377409178899</v>
+        <v>28.96309022242365</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>30.07783750948672</v>
+        <v>30.04479302994072</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>29.13363115425357</v>
+        <v>29.11131770573756</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>29.67437458775373</v>
+        <v>29.67755201710566</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28.85884021957924</v>
+        <v>28.87119818150271</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>30.12445586089005</v>
+        <v>30.12884150064229</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>30.19352772117712</v>
+        <v>30.19075413224705</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>30.79860632730369</v>
+        <v>30.7670711471439</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>29.40040711451248</v>
+        <v>29.38091746504489</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>30.81431527664114</v>
+        <v>30.78117169429902</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>29.64823313685585</v>
+        <v>29.66114709207941</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>29.96193608229398</v>
+        <v>29.99634782482276</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>29.72076556500357</v>
+        <v>29.69996027548903</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>30.70178750801741</v>
+        <v>30.69701138324871</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>29.80537123953145</v>
+        <v>29.83163588158309</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>30.28275279052823</v>
+        <v>30.30149853165205</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>29.43146794072023</v>
+        <v>29.45592384961036</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>30.65622844289961</v>
+        <v>30.66535013839353</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>28.56549303381232</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>29.2767815113142</v>
+        <v>29.27678151131419</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>28.86300923248435</v>
@@ -1237,7 +1237,7 @@
         <v>28.86266508623793</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>29.43014464860496</v>
+        <v>29.43014464860497</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>28.8118504032844</v>
+        <v>28.84992094497147</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>30.12046435482873</v>
+        <v>30.123346173128</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>28.68589453635396</v>
+        <v>28.66667948000481</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>29.13120781845511</v>
+        <v>29.14532128181238</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>27.86228751304962</v>
+        <v>27.76715521174382</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>28.94509068973674</v>
+        <v>28.97540785342916</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>28.06981877542274</v>
+        <v>28.05901411594014</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>28.8807868549254</v>
+        <v>28.88845217792782</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>28.47737371138032</v>
+        <v>28.45987420609024</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>29.63861520322589</v>
+        <v>29.70799726689672</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>28.51179005354066</v>
+        <v>28.50817429970539</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>29.11804058502903</v>
+        <v>29.15056257058272</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>29.91183254632748</v>
+        <v>29.95786972680637</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>31.14900901458208</v>
+        <v>31.12161141033113</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>29.65007840112202</v>
+        <v>29.63185602962514</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>30.0295569699636</v>
+        <v>30.02528927328846</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>28.93915124704359</v>
+        <v>28.86053998286359</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>30.00475166420406</v>
+        <v>30.03303403135221</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>29.05536198736815</v>
+        <v>29.05069253251392</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>29.59526666310274</v>
+        <v>29.64232862906819</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>29.25773026449705</v>
+        <v>29.26436828549187</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>30.3848397257736</v>
+        <v>30.41825897291887</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>29.19367082881883</v>
+        <v>29.20621744867814</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>29.71303284428836</v>
+        <v>29.70191381159898</v>
       </c>
     </row>
     <row r="19">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>28.10309528885643</v>
+        <v>27.99120157619847</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>29.04969559357507</v>
+        <v>29.00108751441865</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>28.89468978827525</v>
+        <v>28.9382831974109</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>29.28852544350987</v>
+        <v>29.26024835499805</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>27.408066802358</v>
+        <v>27.46398726280186</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>28.57836109780011</v>
+        <v>28.58487073638556</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>27.66563248300558</v>
+        <v>27.647334809726</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>29.32401414390702</v>
+        <v>29.31921588009273</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>27.93665859807477</v>
+        <v>27.92388313713611</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>28.96798937962042</v>
+        <v>28.99629311154681</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>28.40009480027392</v>
+        <v>28.4233582609565</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>29.42849620877124</v>
+        <v>29.47744282871185</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>29.3388538201879</v>
+        <v>29.32530546044569</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>30.25864316958739</v>
+        <v>30.20983299692788</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>29.9512221510388</v>
+        <v>29.97620248030458</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>30.2121810468892</v>
+        <v>30.17428693329103</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>28.6720347003331</v>
+        <v>28.64961473990807</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>29.76089996417299</v>
+        <v>29.71725632723824</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>28.67258980607182</v>
+        <v>28.66098769597563</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>30.14956700314874</v>
+        <v>30.14911558620932</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>28.80133677081983</v>
+        <v>28.81784281123713</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>29.83637522176516</v>
+        <v>29.81217524444654</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>29.14902316289487</v>
+        <v>29.11942850797665</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>30.04842765946774</v>
+        <v>30.07183250674427</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>26.68738220535562</v>
+        <v>26.6914161709758</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>27.77326929768682</v>
+        <v>27.77121758063243</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>27.68063418675006</v>
+        <v>27.66131669717493</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>28.35014272228003</v>
+        <v>28.35120157758067</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>25.75607254937077</v>
+        <v>25.73026945665441</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>28.42327192942923</v>
+        <v>28.46995924085211</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>26.93031797094007</v>
+        <v>26.98778958714284</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>27.28863149241793</v>
+        <v>27.26761239583021</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>26.38137180894539</v>
+        <v>26.26893724853794</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>28.41255603877214</v>
+        <v>28.40647792017264</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>27.49150102110697</v>
+        <v>27.41756207817236</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>27.85316420196193</v>
+        <v>27.83289822782559</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>28.38106613394504</v>
+        <v>28.36554891018837</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>29.34344454825897</v>
+        <v>29.37058594708068</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>28.8631772981696</v>
+        <v>28.8970712318157</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>29.49676236221192</v>
+        <v>29.44201622426536</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>27.3557933562451</v>
+        <v>27.30551747057277</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>29.59294571832677</v>
+        <v>29.60347276033848</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>28.27895164285482</v>
+        <v>28.27329388990553</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>28.20266924161388</v>
+        <v>28.19360312039805</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>27.54157888605323</v>
+        <v>27.53503771930638</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>29.3378534291187</v>
+        <v>29.31740926520305</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>28.37362879017114</v>
+        <v>28.33695963539074</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>28.56664715144745</v>
+        <v>28.56242276088902</v>
       </c>
     </row>
     <row r="25">
@@ -1621,7 +1621,7 @@
         <v>29.67167292657596</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>30.46629065128963</v>
+        <v>30.46629065128962</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>29.33922465401762</v>
@@ -1645,7 +1645,7 @@
         <v>29.55462498455668</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>30.32787492909922</v>
+        <v>30.32787492909923</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>29.85854038507891</v>
+        <v>29.86647373212529</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>30.40770784283417</v>
+        <v>30.40778003451061</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>29.51516089589522</v>
+        <v>29.51494590691967</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>30.26339366318895</v>
+        <v>30.28507086245338</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>29.14295016297289</v>
+        <v>29.12512021730131</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>29.86065180078827</v>
+        <v>29.84333081739766</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>29.27174329273004</v>
+        <v>29.26468637070264</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>30.03764597946729</v>
+        <v>30.03866099632921</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>29.55747508361557</v>
+        <v>29.54501471269719</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>30.18399274778895</v>
+        <v>30.18123352567719</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>29.43997740014922</v>
+        <v>29.44792029355746</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>30.19639506254877</v>
+        <v>30.20159096529769</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>30.24073187587425</v>
+        <v>30.22635044885373</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>30.75784859296027</v>
+        <v>30.75287689900381</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>29.8315702464656</v>
+        <v>29.82222216723338</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>30.64657478677932</v>
+        <v>30.67021809160928</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>29.51611257979186</v>
+        <v>29.51851212348667</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>30.20509864651044</v>
+        <v>30.18712643075304</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>29.60403806307324</v>
+        <v>29.60006396263578</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>30.34814398210441</v>
+        <v>30.36597178236401</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>29.83852231918814</v>
+        <v>29.82383036844563</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>30.42449084311148</v>
+        <v>30.4312611755994</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>29.67341485126672</v>
+        <v>29.67169783606294</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>30.45881108127124</v>
+        <v>30.4560246470491</v>
       </c>
     </row>
     <row r="28">
